--- a/doc/EMA_Codebook.xlsx
+++ b/doc/EMA_Codebook.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sohrob\Dropbox\Code\MATLAB\CS120\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23540" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Group</t>
   </si>
@@ -261,13 +259,28 @@
   </si>
   <si>
     <t>Affect</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>3 X day</t>
+  </si>
+  <si>
+    <t>First contact</t>
+  </si>
+  <si>
+    <t>Daily prompt</t>
+  </si>
+  <si>
+    <t>Morning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,8 +318,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -361,11 +396,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -385,8 +432,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -446,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -658,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,22 +726,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.9453125" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" customWidth="1"/>
-    <col min="3" max="3" width="53.89453125" customWidth="1"/>
-    <col min="4" max="4" width="23.15625" customWidth="1"/>
-    <col min="5" max="5" width="114.26171875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="53.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="114.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,16 +749,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -706,256 +769,302 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="42">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
@@ -963,85 +1072,108 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6">
       <c r="A22" s="6"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/EMA_Codebook.xlsx
+++ b/doc/EMA_Codebook.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sohrob\Dropbox\Code\MATLAB\CS120\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23540" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -718,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,19 +734,19 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="53.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="114.33203125" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="114.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,7 +766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -781,7 +786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -797,7 +802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -813,7 +818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -829,13 +834,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
@@ -846,7 +852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -860,7 +866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -876,7 +882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11" t="s">
@@ -892,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11" t="s">
@@ -908,7 +914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11" t="s">
@@ -924,7 +930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
@@ -940,7 +946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -958,7 +964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -972,7 +978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -984,7 +990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -1000,7 +1006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -1016,7 +1022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -1032,7 +1038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -1048,7 +1054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -1064,7 +1070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1100,7 +1106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -1116,7 +1122,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1132,7 +1138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1148,7 +1154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -1164,7 +1170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
